--- a/team_specific_matrix/St. Mary-Woods_A.xlsx
+++ b/team_specific_matrix/St. Mary-Woods_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4285714285714285</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="C2">
-        <v>0.1428571428571428</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.2857142857142857</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>0.4285714285714285</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.1538461538461539</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3846153846153846</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="S6">
-        <v>0.4615384615384616</v>
+        <v>0.5454545454545454</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -838,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1666666666666667</v>
+        <v>0.3125</v>
       </c>
       <c r="R7">
-        <v>0.1666666666666667</v>
+        <v>0.0625</v>
       </c>
       <c r="S7">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09090909090909091</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.09090909090909091</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1363636363636364</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.04545454545454546</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="R8">
-        <v>0.04545454545454546</v>
+        <v>0.1025641025641026</v>
       </c>
       <c r="S8">
-        <v>0.5909090909090909</v>
+        <v>0.4358974358974359</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -923,7 +923,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3076923076923077</v>
+        <v>0.24</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.07692307692307693</v>
+        <v>0.08</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1538461538461539</v>
+        <v>0.12</v>
       </c>
       <c r="R9">
-        <v>0.1538461538461539</v>
+        <v>0.12</v>
       </c>
       <c r="S9">
-        <v>0.3076923076923077</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.04545454545454546</v>
+        <v>0.08139534883720931</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06818181818181818</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1136363636363636</v>
+        <v>0.1046511627906977</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.02272727272727273</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.09090909090909091</v>
+        <v>0.1279069767441861</v>
       </c>
       <c r="R10">
-        <v>0.02272727272727273</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="S10">
-        <v>0.6363636363636364</v>
+        <v>0.5581395348837209</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1666666666666667</v>
+        <v>0.25</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1666666666666667</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K11">
         <v>0.3333333333333333</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.375</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="I15">
-        <v>0.125</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="J15">
-        <v>0.125</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.375</v>
+        <v>0.2631578947368421</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1401,40 +1401,40 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="I17">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="J17">
+        <v>0.2916666666666667</v>
+      </c>
+      <c r="K17">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0.04166666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>0.125</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
         <v>0.25</v>
-      </c>
-      <c r="K17">
-        <v>0.125</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,13 +1460,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K18">
         <v>0.2</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.06172839506172839</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2222222222222222</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="I19">
-        <v>0.1481481481481481</v>
+        <v>0.1287878787878788</v>
       </c>
       <c r="J19">
-        <v>0.2469135802469136</v>
+        <v>0.2803030303030303</v>
       </c>
       <c r="K19">
-        <v>0.02469135802469136</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.03703703703703703</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06172839506172839</v>
+        <v>0.06060606060606061</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1975308641975309</v>
+        <v>0.1590909090909091</v>
       </c>
     </row>
   </sheetData>
